--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2012416.520087326</v>
+        <v>2011751.739005908</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362195.2019480303</v>
+        <v>362195.2019480304</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>87.14626963200362</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>26.89230219312403</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>22.05838072575457</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>38.19558671312482</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
     </row>
     <row r="12">
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="T12" t="n">
-        <v>19.55182399611252</v>
+        <v>14.58962378130632</v>
       </c>
       <c r="U12" t="n">
-        <v>36.87179703458434</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="V12" t="n">
-        <v>40.29306373012031</v>
+        <v>65.16233974105317</v>
       </c>
       <c r="W12" t="n">
-        <v>66.34872639172966</v>
+        <v>66.34872639172954</v>
       </c>
       <c r="X12" t="n">
-        <v>16.95705725418867</v>
+        <v>16.95705725418856</v>
       </c>
       <c r="Y12" t="n">
-        <v>98.93990648501779</v>
+        <v>23.02842894874357</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.836158859791174</v>
+        <v>2.836158859791061</v>
       </c>
       <c r="S13" t="n">
-        <v>34.98996300440339</v>
+        <v>34.98996300440328</v>
       </c>
       <c r="T13" t="n">
-        <v>23.38309022542044</v>
+        <v>23.38309022542032</v>
       </c>
       <c r="U13" t="n">
-        <v>88.30041113171404</v>
+        <v>88.30041113171393</v>
       </c>
       <c r="V13" t="n">
-        <v>44.75315799916797</v>
+        <v>44.75315799916785</v>
       </c>
       <c r="W13" t="n">
-        <v>89.95484990405339</v>
+        <v>89.95484990405328</v>
       </c>
       <c r="X13" t="n">
-        <v>21.56359822296059</v>
+        <v>21.56359822296048</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.78541562888648</v>
+        <v>16.78541562888637</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>96.93640369251541</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="H14" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.199089505627</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.89230219312415</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>22.05838072575469</v>
+        <v>22.05838072575466</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>49.79374050860076</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="X14" t="n">
-        <v>98.93990648501779</v>
+        <v>15.29414839764802</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>24.86927601093259</v>
       </c>
       <c r="T15" t="n">
-        <v>98.93990648501779</v>
+        <v>14.5896237813064</v>
       </c>
       <c r="U15" t="n">
-        <v>80.45629367228071</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="V15" t="n">
-        <v>40.29306373012031</v>
+        <v>40.29306373012028</v>
       </c>
       <c r="W15" t="n">
-        <v>66.34872639172966</v>
+        <v>66.34872639172963</v>
       </c>
       <c r="X15" t="n">
-        <v>16.95705725418867</v>
+        <v>16.95705725418864</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.02842894874368</v>
+        <v>23.02842894874365</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.836158859791174</v>
+        <v>2.836158859791146</v>
       </c>
       <c r="S16" t="n">
-        <v>34.98996300440339</v>
+        <v>34.98996300440336</v>
       </c>
       <c r="T16" t="n">
-        <v>23.38309022542044</v>
+        <v>23.38309022542041</v>
       </c>
       <c r="U16" t="n">
-        <v>88.30041113171404</v>
+        <v>88.30041113171401</v>
       </c>
       <c r="V16" t="n">
-        <v>44.75315799916797</v>
+        <v>44.75315799916794</v>
       </c>
       <c r="W16" t="n">
-        <v>89.95484990405339</v>
+        <v>89.95484990405336</v>
       </c>
       <c r="X16" t="n">
-        <v>21.56359822296059</v>
+        <v>21.56359822296056</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.78541562888648</v>
+        <v>16.78541562888645</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>73.35237277478018</v>
       </c>
       <c r="G17" t="n">
-        <v>88.97949861282757</v>
+        <v>88.97949861282711</v>
       </c>
       <c r="H17" t="n">
-        <v>17.05370075428357</v>
+        <v>17.05370075428355</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>98.93990648501779</v>
+        <v>81.0825619217176</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="S18" t="n">
-        <v>87.14626963200367</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="Y18" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.24036351260014</v>
+        <v>44.24036351260003</v>
       </c>
       <c r="C20" t="n">
-        <v>20.35862051594563</v>
+        <v>20.35862051594552</v>
       </c>
       <c r="D20" t="n">
-        <v>7.925282776994095</v>
+        <v>7.925282776993981</v>
       </c>
       <c r="E20" t="n">
-        <v>41.63203519640297</v>
+        <v>41.63203519640285</v>
       </c>
       <c r="F20" t="n">
-        <v>73.3523727747792</v>
+        <v>73.35237277478018</v>
       </c>
       <c r="G20" t="n">
-        <v>88.97949861282765</v>
+        <v>88.97949861282754</v>
       </c>
       <c r="H20" t="n">
-        <v>17.05370075428368</v>
+        <v>17.05370075428357</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.049586960533702</v>
+        <v>8.049586960533588</v>
       </c>
       <c r="X20" t="n">
-        <v>29.93583742947294</v>
+        <v>29.93583742947283</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.4386905532167</v>
+        <v>52.43869055321659</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R21" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>29.20375702702744</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>98.93990648501779</v>
+        <v>81.08256192171761</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.24036351260014</v>
+        <v>44.24036351260003</v>
       </c>
       <c r="C23" t="n">
-        <v>20.35862051594563</v>
+        <v>20.35862051594552</v>
       </c>
       <c r="D23" t="n">
-        <v>7.925282776994095</v>
+        <v>7.925282776993981</v>
       </c>
       <c r="E23" t="n">
-        <v>41.63203519640297</v>
+        <v>41.63203519640285</v>
       </c>
       <c r="F23" t="n">
-        <v>73.35237277478029</v>
+        <v>73.35237277478018</v>
       </c>
       <c r="G23" t="n">
-        <v>88.97949861282765</v>
+        <v>88.97949861282757</v>
       </c>
       <c r="H23" t="n">
-        <v>17.05370075428368</v>
+        <v>17.05370075428357</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.049586960533702</v>
+        <v>8.049586960533588</v>
       </c>
       <c r="X23" t="n">
-        <v>29.93583742947294</v>
+        <v>29.93583742947283</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.4386905532167</v>
+        <v>52.43869055321659</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>98.93990648501779</v>
+        <v>81.08256192171777</v>
       </c>
       <c r="Y24" t="n">
-        <v>81.08256192171773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>17.5495241936734</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>17.54952419367349</v>
       </c>
       <c r="S27" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9454809665884</v>
+        <v>2.08476662097489</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276542198663</v>
+        <v>24.3669398742528</v>
       </c>
       <c r="V27" t="n">
-        <v>27.78820656978877</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>53.84386923139812</v>
@@ -2700,7 +2700,7 @@
         <v>4.45220009385713</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.52357178841214</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2265260322199</v>
+        <v>161.2265260322198</v>
       </c>
       <c r="C29" t="n">
         <v>137.3447830355653</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9114452966138</v>
+        <v>124.9114452966137</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6181977160227</v>
+        <v>158.6181977160226</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3385352944</v>
+        <v>190.3385352943999</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9656611324474</v>
+        <v>205.9656611324473</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0398632739034</v>
+        <v>134.0398632739033</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69423234529546</v>
+        <v>27.69423234529537</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.38744503279261</v>
+        <v>14.38744503279252</v>
       </c>
       <c r="T29" t="n">
-        <v>9.553523565423143</v>
+        <v>9.553523565423058</v>
       </c>
       <c r="U29" t="n">
-        <v>37.28888334826925</v>
+        <v>37.28888334826917</v>
       </c>
       <c r="V29" t="n">
         <v>108.0190692635385</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0357494801534</v>
+        <v>125.0357494801533</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9219999490927</v>
+        <v>146.9219999490926</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4248530728364</v>
+        <v>169.4248530728363</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>74.69517894717475</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9454809665884</v>
+        <v>2.084766620974805</v>
       </c>
       <c r="U30" t="n">
-        <v>24.3669398742528</v>
+        <v>24.36693987425271</v>
       </c>
       <c r="V30" t="n">
-        <v>77.98783641756478</v>
+        <v>27.78820656978868</v>
       </c>
       <c r="W30" t="n">
-        <v>53.84386923139812</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>4.45220009385713</v>
+        <v>4.452200093857044</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.48510584407185</v>
+        <v>22.48510584407176</v>
       </c>
       <c r="T31" t="n">
-        <v>10.8782330650889</v>
+        <v>10.87823306508881</v>
       </c>
       <c r="U31" t="n">
-        <v>75.7955539713825</v>
+        <v>75.79555397138242</v>
       </c>
       <c r="V31" t="n">
-        <v>32.24830083883643</v>
+        <v>32.24830083883634</v>
       </c>
       <c r="W31" t="n">
-        <v>77.44999274372185</v>
+        <v>77.44999274372177</v>
       </c>
       <c r="X31" t="n">
-        <v>9.058741062629053</v>
+        <v>9.058741062628968</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.280558468554943</v>
+        <v>4.280558468554858</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2265260322198</v>
+        <v>161.2265260322199</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3447830355653</v>
+        <v>137.3447830355654</v>
       </c>
       <c r="D32" t="n">
         <v>124.9114452966138</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6181977160226</v>
+        <v>158.6181977160227</v>
       </c>
       <c r="F32" t="n">
         <v>190.3385352944</v>
@@ -3047,7 +3047,7 @@
         <v>134.0398632739034</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69423234529543</v>
+        <v>27.69423234529549</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.38744503279258</v>
+        <v>14.38744503279264</v>
       </c>
       <c r="T32" t="n">
-        <v>9.55352356542312</v>
+        <v>9.553523565423177</v>
       </c>
       <c r="U32" t="n">
-        <v>37.28888334826922</v>
+        <v>37.28888334826928</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0190692635385</v>
+        <v>108.0190692635386</v>
       </c>
       <c r="W32" t="n">
         <v>125.0357494801534</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9219999490926</v>
+        <v>146.9219999490927</v>
       </c>
       <c r="Y32" t="n">
         <v>169.4248530728364</v>
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>68.63147123688847</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S33" t="n">
-        <v>50.19962984777616</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U33" t="n">
-        <v>24.36693987425277</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V33" t="n">
-        <v>27.78820656978874</v>
+        <v>27.7882065697888</v>
       </c>
       <c r="W33" t="n">
-        <v>53.84386923139809</v>
+        <v>53.84386923139814</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>4.452200093857158</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.52357178841211</v>
+        <v>10.52357178841217</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.48510584407182</v>
+        <v>22.48510584407188</v>
       </c>
       <c r="T34" t="n">
-        <v>10.87823306508887</v>
+        <v>10.87823306508892</v>
       </c>
       <c r="U34" t="n">
-        <v>75.79555397138247</v>
+        <v>75.79555397138253</v>
       </c>
       <c r="V34" t="n">
-        <v>32.2483008388364</v>
+        <v>32.24830083883646</v>
       </c>
       <c r="W34" t="n">
-        <v>77.44999274372182</v>
+        <v>77.44999274372188</v>
       </c>
       <c r="X34" t="n">
-        <v>9.058741062629025</v>
+        <v>9.058741062629082</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.280558468554915</v>
+        <v>4.280558468554972</v>
       </c>
     </row>
     <row r="35">
@@ -3387,31 +3387,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>62.30429504221296</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V36" t="n">
-        <v>44.33855997682144</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>26.14963688610268</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>94.95440069631552</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>13.22289312533504</v>
       </c>
       <c r="U39" t="n">
         <v>237.2276542198663</v>
@@ -3642,7 +3642,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>26.14963688610268</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3861,19 +3861,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U42" t="n">
-        <v>44.24458575232813</v>
+        <v>84.5864682954909</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -3882,10 +3882,10 @@
         <v>26.14963688610268</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>107.1460820356304</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4735447740308</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>20.65226961114307</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>78.82536382159934</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>395.7596259400711</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C11" t="n">
-        <v>395.7596259400711</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D11" t="n">
-        <v>395.7596259400711</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E11" t="n">
-        <v>307.7330909582492</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F11" t="n">
-        <v>207.7937914784333</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G11" t="n">
-        <v>107.8544919986174</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H11" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I11" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J11" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K11" t="n">
-        <v>101.2960017706245</v>
+        <v>32.19343489381389</v>
       </c>
       <c r="L11" t="n">
-        <v>199.2465091907921</v>
+        <v>80.75739160815597</v>
       </c>
       <c r="M11" t="n">
-        <v>282.1592279926924</v>
+        <v>163.6701104100563</v>
       </c>
       <c r="N11" t="n">
-        <v>359.5711252503917</v>
+        <v>261.6206178302238</v>
       </c>
       <c r="O11" t="n">
-        <v>395.7596259400711</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="P11" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q11" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R11" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S11" t="n">
-        <v>395.7596259400711</v>
+        <v>368.5956843308545</v>
       </c>
       <c r="T11" t="n">
-        <v>395.7596259400711</v>
+        <v>346.3144916785771</v>
       </c>
       <c r="U11" t="n">
-        <v>395.7596259400711</v>
+        <v>307.733090958249</v>
       </c>
       <c r="V11" t="n">
-        <v>395.7596259400711</v>
+        <v>207.7937914784332</v>
       </c>
       <c r="W11" t="n">
-        <v>395.7596259400711</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="X11" t="n">
-        <v>395.7596259400711</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="Y11" t="n">
-        <v>395.7596259400711</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K12" t="n">
-        <v>7.915192518801423</v>
+        <v>46.8876093073556</v>
       </c>
       <c r="L12" t="n">
-        <v>105.865699938969</v>
+        <v>144.8381167275231</v>
       </c>
       <c r="M12" t="n">
-        <v>115.0401959957314</v>
+        <v>242.7886241476906</v>
       </c>
       <c r="N12" t="n">
-        <v>212.990703415899</v>
+        <v>310.9412108360661</v>
       </c>
       <c r="O12" t="n">
-        <v>310.9412108360666</v>
+        <v>310.9412108360661</v>
       </c>
       <c r="P12" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q12" t="n">
-        <v>389.6346686569541</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R12" t="n">
-        <v>289.6953691771381</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S12" t="n">
-        <v>289.6953691771381</v>
+        <v>295.8203264602548</v>
       </c>
       <c r="T12" t="n">
-        <v>269.9460520093477</v>
+        <v>281.0833327417636</v>
       </c>
       <c r="U12" t="n">
-        <v>232.7018125804746</v>
+        <v>181.1440332619477</v>
       </c>
       <c r="V12" t="n">
-        <v>192.0017482066157</v>
+        <v>115.3234880689647</v>
       </c>
       <c r="W12" t="n">
-        <v>124.982832659414</v>
+        <v>48.30457252176316</v>
       </c>
       <c r="X12" t="n">
-        <v>107.8544919986174</v>
+        <v>31.17623186096664</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.42673967391213</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C13" t="n">
-        <v>63.98642912508862</v>
+        <v>10.37520388943788</v>
       </c>
       <c r="D13" t="n">
-        <v>118.6079039903141</v>
+        <v>10.37520388943788</v>
       </c>
       <c r="E13" t="n">
-        <v>176.7008228036405</v>
+        <v>10.37520388943788</v>
       </c>
       <c r="F13" t="n">
-        <v>237.5155080208074</v>
+        <v>71.18988910660492</v>
       </c>
       <c r="G13" t="n">
-        <v>237.5155080208074</v>
+        <v>102.5336595681419</v>
       </c>
       <c r="H13" t="n">
-        <v>237.5155080208074</v>
+        <v>102.5336595681419</v>
       </c>
       <c r="I13" t="n">
-        <v>237.5155080208074</v>
+        <v>137.8390715940185</v>
       </c>
       <c r="J13" t="n">
-        <v>317.2009942645576</v>
+        <v>137.8390715940185</v>
       </c>
       <c r="K13" t="n">
-        <v>333.7400864343545</v>
+        <v>137.8390715940185</v>
       </c>
       <c r="L13" t="n">
-        <v>333.7400864343545</v>
+        <v>235.789579014186</v>
       </c>
       <c r="M13" t="n">
-        <v>333.7400864343545</v>
+        <v>333.7400864343535</v>
       </c>
       <c r="N13" t="n">
-        <v>333.7400864343545</v>
+        <v>333.7400864343535</v>
       </c>
       <c r="O13" t="n">
-        <v>333.7400864343545</v>
+        <v>333.7400864343535</v>
       </c>
       <c r="P13" t="n">
-        <v>333.7400864343545</v>
+        <v>333.7400864343535</v>
       </c>
       <c r="Q13" t="n">
-        <v>333.7400864343545</v>
+        <v>333.7400864343535</v>
       </c>
       <c r="R13" t="n">
-        <v>330.8752795052725</v>
+        <v>330.8752795052717</v>
       </c>
       <c r="S13" t="n">
-        <v>295.5318825311276</v>
+        <v>295.5318825311269</v>
       </c>
       <c r="T13" t="n">
-        <v>271.9125994751474</v>
+        <v>271.9125994751468</v>
       </c>
       <c r="U13" t="n">
-        <v>182.7202649986685</v>
+        <v>182.7202649986681</v>
       </c>
       <c r="V13" t="n">
-        <v>137.5150548984989</v>
+        <v>137.5150548984985</v>
       </c>
       <c r="W13" t="n">
-        <v>46.65157014692979</v>
+        <v>46.65157014692954</v>
       </c>
       <c r="X13" t="n">
-        <v>24.87015780050494</v>
+        <v>24.87015780050482</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>246.3751921987614</v>
+        <v>107.8544919986172</v>
       </c>
       <c r="C14" t="n">
-        <v>246.3751921987614</v>
+        <v>107.8544919986172</v>
       </c>
       <c r="D14" t="n">
-        <v>246.3751921987614</v>
+        <v>107.8544919986172</v>
       </c>
       <c r="E14" t="n">
-        <v>148.4596329133921</v>
+        <v>107.8544919986172</v>
       </c>
       <c r="F14" t="n">
-        <v>148.4596329133921</v>
+        <v>107.8544919986172</v>
       </c>
       <c r="G14" t="n">
-        <v>148.4596329133921</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H14" t="n">
-        <v>48.52033343357616</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I14" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J14" t="n">
-        <v>7.915192518801423</v>
+        <v>105.8656999389689</v>
       </c>
       <c r="K14" t="n">
-        <v>7.915192518801423</v>
+        <v>150.6825524764496</v>
       </c>
       <c r="L14" t="n">
-        <v>56.4791492331435</v>
+        <v>199.2465091907916</v>
       </c>
       <c r="M14" t="n">
-        <v>139.3918680350438</v>
+        <v>282.1592279926919</v>
       </c>
       <c r="N14" t="n">
-        <v>216.8037652927431</v>
+        <v>359.5711252503912</v>
       </c>
       <c r="O14" t="n">
-        <v>252.9922659824226</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="P14" t="n">
-        <v>291.6558868311981</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q14" t="n">
-        <v>389.6063942513657</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R14" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S14" t="n">
-        <v>368.5956843308548</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="T14" t="n">
-        <v>346.3144916785773</v>
+        <v>373.4784332877933</v>
       </c>
       <c r="U14" t="n">
-        <v>346.3144916785773</v>
+        <v>323.181725703348</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3144916785773</v>
+        <v>223.2424262235321</v>
       </c>
       <c r="W14" t="n">
-        <v>346.3144916785773</v>
+        <v>123.3031267437163</v>
       </c>
       <c r="X14" t="n">
-        <v>246.3751921987614</v>
+        <v>107.8544919986172</v>
       </c>
       <c r="Y14" t="n">
-        <v>246.3751921987614</v>
+        <v>107.8544919986172</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C15" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D15" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E15" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F15" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G15" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H15" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I15" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K15" t="n">
-        <v>46.88760930735561</v>
+        <v>46.8876093073556</v>
       </c>
       <c r="L15" t="n">
-        <v>144.8381167275232</v>
+        <v>144.8381167275231</v>
       </c>
       <c r="M15" t="n">
-        <v>242.7886241476908</v>
+        <v>242.7886241476906</v>
       </c>
       <c r="N15" t="n">
-        <v>310.9412108360666</v>
+        <v>340.7391315678581</v>
       </c>
       <c r="O15" t="n">
-        <v>310.9412108360666</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="P15" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q15" t="n">
-        <v>389.6346686569541</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R15" t="n">
-        <v>389.6346686569541</v>
+        <v>295.8203264602548</v>
       </c>
       <c r="S15" t="n">
-        <v>389.6346686569541</v>
+        <v>270.699845641131</v>
       </c>
       <c r="T15" t="n">
-        <v>289.6953691771381</v>
+        <v>255.9628519226397</v>
       </c>
       <c r="U15" t="n">
-        <v>208.4263856697839</v>
+        <v>156.0235524428238</v>
       </c>
       <c r="V15" t="n">
-        <v>167.7263212959249</v>
+        <v>115.323488068965</v>
       </c>
       <c r="W15" t="n">
-        <v>100.7074057487233</v>
+        <v>48.30457252176333</v>
       </c>
       <c r="X15" t="n">
-        <v>83.57906508792664</v>
+        <v>31.17623186096672</v>
       </c>
       <c r="Y15" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.915192518801423</v>
+        <v>30.42673967391215</v>
       </c>
       <c r="C16" t="n">
-        <v>41.47488196997791</v>
+        <v>30.42673967391215</v>
       </c>
       <c r="D16" t="n">
-        <v>96.09635683520344</v>
+        <v>85.04821453913769</v>
       </c>
       <c r="E16" t="n">
-        <v>154.1892756485298</v>
+        <v>85.04821453913769</v>
       </c>
       <c r="F16" t="n">
-        <v>215.0039608656967</v>
+        <v>85.04821453913769</v>
       </c>
       <c r="G16" t="n">
-        <v>215.0039608656967</v>
+        <v>85.04821453913769</v>
       </c>
       <c r="H16" t="n">
-        <v>215.0039608656967</v>
+        <v>85.04821453913769</v>
       </c>
       <c r="I16" t="n">
-        <v>215.0039608656967</v>
+        <v>85.04821453913769</v>
       </c>
       <c r="J16" t="n">
-        <v>215.0039608656967</v>
+        <v>85.04821453913769</v>
       </c>
       <c r="K16" t="n">
-        <v>215.0039608656967</v>
+        <v>85.04821453913769</v>
       </c>
       <c r="L16" t="n">
-        <v>215.0039608656967</v>
+        <v>182.9987219593052</v>
       </c>
       <c r="M16" t="n">
-        <v>215.0039608656967</v>
+        <v>280.9492293794727</v>
       </c>
       <c r="N16" t="n">
-        <v>235.7895790141869</v>
+        <v>280.9492293794727</v>
       </c>
       <c r="O16" t="n">
-        <v>235.7895790141869</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="P16" t="n">
-        <v>333.7400864343545</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="Q16" t="n">
-        <v>333.7400864343545</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="R16" t="n">
-        <v>330.8752795052725</v>
+        <v>330.8752795052722</v>
       </c>
       <c r="S16" t="n">
-        <v>295.5318825311276</v>
+        <v>295.5318825311274</v>
       </c>
       <c r="T16" t="n">
-        <v>271.9125994751474</v>
+        <v>271.9125994751472</v>
       </c>
       <c r="U16" t="n">
-        <v>182.7202649986685</v>
+        <v>182.7202649986684</v>
       </c>
       <c r="V16" t="n">
-        <v>137.5150548984989</v>
+        <v>137.5150548984988</v>
       </c>
       <c r="W16" t="n">
-        <v>46.65157014692979</v>
+        <v>46.65157014692972</v>
       </c>
       <c r="X16" t="n">
-        <v>24.87015780050494</v>
+        <v>24.87015780050491</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>259.7349002271188</v>
+        <v>259.7349002271183</v>
       </c>
       <c r="C17" t="n">
-        <v>239.170637079699</v>
+        <v>239.1706370796986</v>
       </c>
       <c r="D17" t="n">
-        <v>231.1653009413212</v>
+        <v>231.1653009413208</v>
       </c>
       <c r="E17" t="n">
-        <v>189.1127401368739</v>
+        <v>189.1127401368735</v>
       </c>
       <c r="F17" t="n">
-        <v>115.0194343037626</v>
+        <v>115.0194343037622</v>
       </c>
       <c r="G17" t="n">
-        <v>25.14115287666361</v>
+        <v>25.14115287666358</v>
       </c>
       <c r="H17" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I17" t="n">
-        <v>71.78224609681294</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J17" t="n">
-        <v>71.78224609681294</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K17" t="n">
-        <v>71.78224609681294</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L17" t="n">
-        <v>120.346202811155</v>
+        <v>101.2960017706242</v>
       </c>
       <c r="M17" t="n">
-        <v>203.2589216130553</v>
+        <v>184.2087205725244</v>
       </c>
       <c r="N17" t="n">
-        <v>280.6708188707546</v>
+        <v>261.6206178302238</v>
       </c>
       <c r="O17" t="n">
-        <v>316.8593195604341</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="P17" t="n">
-        <v>316.8593195604341</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="Q17" t="n">
-        <v>316.8593195604341</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="R17" t="n">
-        <v>316.8593195604341</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S17" t="n">
-        <v>316.8593195604341</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="T17" t="n">
-        <v>316.8593195604341</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="U17" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="V17" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="W17" t="n">
-        <v>387.6287300203403</v>
+        <v>387.6287300203398</v>
       </c>
       <c r="X17" t="n">
-        <v>357.3905103946104</v>
+        <v>357.3905103946097</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.422136098432</v>
+        <v>304.4221360984314</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>207.7937914784333</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="C18" t="n">
-        <v>107.8544919986174</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="D18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L18" t="n">
-        <v>17.08968857556377</v>
+        <v>105.8656999389689</v>
       </c>
       <c r="M18" t="n">
-        <v>115.0401959957314</v>
+        <v>199.8586110997357</v>
       </c>
       <c r="N18" t="n">
-        <v>212.990703415899</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="O18" t="n">
-        <v>310.9412108360666</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="P18" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q18" t="n">
-        <v>395.7596259400711</v>
+        <v>389.6346686569536</v>
       </c>
       <c r="R18" t="n">
-        <v>395.7596259400711</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="S18" t="n">
-        <v>307.7330909582492</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="T18" t="n">
-        <v>307.7330909582492</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="U18" t="n">
-        <v>307.7330909582492</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="V18" t="n">
-        <v>307.7330909582492</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="W18" t="n">
-        <v>307.7330909582492</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="X18" t="n">
-        <v>307.7330909582492</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="Y18" t="n">
-        <v>207.7937914784333</v>
+        <v>89.81677021750608</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="M19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="N19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="O19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="P19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="R19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="S19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="T19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="U19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="V19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="W19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="X19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>259.7349002271183</v>
       </c>
       <c r="C20" t="n">
-        <v>239.1706370796979</v>
+        <v>239.1706370796987</v>
       </c>
       <c r="D20" t="n">
-        <v>231.16530094132</v>
+        <v>231.1653009413209</v>
       </c>
       <c r="E20" t="n">
-        <v>189.1127401368726</v>
+        <v>189.1127401368736</v>
       </c>
       <c r="F20" t="n">
-        <v>115.0194343037623</v>
+        <v>115.0194343037622</v>
       </c>
       <c r="G20" t="n">
-        <v>25.14115287666373</v>
+        <v>25.1411528766636</v>
       </c>
       <c r="H20" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I20" t="n">
-        <v>96.31420339138242</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J20" t="n">
-        <v>96.31420339138242</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K20" t="n">
-        <v>141.8051301529296</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L20" t="n">
-        <v>190.3690868672717</v>
+        <v>101.2960017706242</v>
       </c>
       <c r="M20" t="n">
-        <v>273.281805669172</v>
+        <v>184.2087205725244</v>
       </c>
       <c r="N20" t="n">
-        <v>350.6937029268713</v>
+        <v>261.6206178302238</v>
       </c>
       <c r="O20" t="n">
-        <v>386.8822036165508</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="P20" t="n">
-        <v>386.8822036165508</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="Q20" t="n">
-        <v>386.8822036165508</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="R20" t="n">
-        <v>386.8822036165508</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="S20" t="n">
-        <v>386.8822036165508</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="T20" t="n">
-        <v>386.8822036165508</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="U20" t="n">
-        <v>386.8822036165508</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="V20" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="W20" t="n">
-        <v>387.6287300203402</v>
+        <v>387.6287300203398</v>
       </c>
       <c r="X20" t="n">
-        <v>357.39051039461</v>
+        <v>357.3905103946097</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.4221360984315</v>
+        <v>304.4221360984314</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C21" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D21" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E21" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F21" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G21" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H21" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I21" t="n">
-        <v>60.3180257457613</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J21" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K21" t="n">
-        <v>46.88760930735561</v>
+        <v>46.8876093073556</v>
       </c>
       <c r="L21" t="n">
-        <v>46.88760930735561</v>
+        <v>115.0401959957312</v>
       </c>
       <c r="M21" t="n">
-        <v>115.0401959957314</v>
+        <v>212.9907034158987</v>
       </c>
       <c r="N21" t="n">
-        <v>212.990703415899</v>
+        <v>212.9907034158987</v>
       </c>
       <c r="O21" t="n">
-        <v>310.9412108360666</v>
+        <v>310.9412108360661</v>
       </c>
       <c r="P21" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q21" t="n">
-        <v>389.6346686569541</v>
+        <v>389.6346686569536</v>
       </c>
       <c r="R21" t="n">
-        <v>289.6953691771381</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="S21" t="n">
-        <v>289.6953691771381</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="T21" t="n">
-        <v>260.1966247053932</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="U21" t="n">
-        <v>160.2573252255773</v>
+        <v>289.6953691771378</v>
       </c>
       <c r="V21" t="n">
-        <v>60.3180257457613</v>
+        <v>207.7937914784331</v>
       </c>
       <c r="W21" t="n">
-        <v>60.3180257457613</v>
+        <v>207.7937914784331</v>
       </c>
       <c r="X21" t="n">
-        <v>60.3180257457613</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="Y21" t="n">
-        <v>60.3180257457613</v>
+        <v>107.8544919986173</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="M22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="N22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="O22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="P22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="R22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="S22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="T22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="U22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="V22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="W22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="X22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.7349002271182</v>
+        <v>259.7349002271191</v>
       </c>
       <c r="C23" t="n">
-        <v>239.1706370796984</v>
+        <v>239.1706370796992</v>
       </c>
       <c r="D23" t="n">
-        <v>231.1653009413205</v>
+        <v>231.1653009413215</v>
       </c>
       <c r="E23" t="n">
-        <v>189.1127401368731</v>
+        <v>189.112740136874</v>
       </c>
       <c r="F23" t="n">
-        <v>115.0194343037617</v>
+        <v>115.0194343037627</v>
       </c>
       <c r="G23" t="n">
-        <v>25.14115287666373</v>
+        <v>25.14115287666362</v>
       </c>
       <c r="H23" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="I23" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="J23" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="K23" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="L23" t="n">
-        <v>56.4791492331435</v>
+        <v>90.93017032516637</v>
       </c>
       <c r="M23" t="n">
-        <v>139.3918680350438</v>
+        <v>173.8428891270667</v>
       </c>
       <c r="N23" t="n">
-        <v>216.8037652927431</v>
+        <v>271.7933965472344</v>
       </c>
       <c r="O23" t="n">
-        <v>252.9922659824226</v>
+        <v>307.9818972369139</v>
       </c>
       <c r="P23" t="n">
-        <v>252.9922659824226</v>
+        <v>307.9818972369139</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.9922659824226</v>
+        <v>307.9818972369139</v>
       </c>
       <c r="R23" t="n">
-        <v>252.9922659824226</v>
+        <v>307.9818972369139</v>
       </c>
       <c r="S23" t="n">
-        <v>252.9922659824226</v>
+        <v>307.9818972369139</v>
       </c>
       <c r="T23" t="n">
-        <v>307.9818972369138</v>
+        <v>307.9818972369139</v>
       </c>
       <c r="U23" t="n">
-        <v>386.8822036165508</v>
+        <v>386.882203616551</v>
       </c>
       <c r="V23" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="W23" t="n">
-        <v>387.6287300203402</v>
+        <v>387.6287300203406</v>
       </c>
       <c r="X23" t="n">
-        <v>357.39051039461</v>
+        <v>357.3905103946107</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4221360984315</v>
+        <v>304.4221360984322</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>107.8544919986174</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="C24" t="n">
-        <v>107.8544919986174</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="D24" t="n">
-        <v>107.8544919986174</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="E24" t="n">
-        <v>107.8544919986174</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="F24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="G24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="H24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="I24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="J24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="K24" t="n">
-        <v>7.915192518801423</v>
+        <v>46.88760930735561</v>
       </c>
       <c r="L24" t="n">
-        <v>105.865699938969</v>
+        <v>144.8381167275233</v>
       </c>
       <c r="M24" t="n">
-        <v>203.8162073591366</v>
+        <v>144.8381167275233</v>
       </c>
       <c r="N24" t="n">
-        <v>297.8091185199036</v>
+        <v>242.788624147691</v>
       </c>
       <c r="O24" t="n">
-        <v>395.7596259400711</v>
+        <v>340.7391315678587</v>
       </c>
       <c r="P24" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q24" t="n">
-        <v>389.6346686569541</v>
+        <v>389.6346686569544</v>
       </c>
       <c r="R24" t="n">
-        <v>389.6346686569541</v>
+        <v>289.6953691771383</v>
       </c>
       <c r="S24" t="n">
-        <v>389.6346686569541</v>
+        <v>189.7560696973223</v>
       </c>
       <c r="T24" t="n">
-        <v>389.6346686569541</v>
+        <v>189.7560696973223</v>
       </c>
       <c r="U24" t="n">
-        <v>389.6346686569541</v>
+        <v>89.81677021750626</v>
       </c>
       <c r="V24" t="n">
-        <v>389.6346686569541</v>
+        <v>89.81677021750626</v>
       </c>
       <c r="W24" t="n">
-        <v>389.6346686569541</v>
+        <v>89.81677021750626</v>
       </c>
       <c r="X24" t="n">
-        <v>289.6953691771381</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="Y24" t="n">
-        <v>207.7937914784333</v>
+        <v>7.915192518801429</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="C25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="D25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="E25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="F25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="G25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="H25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="I25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="J25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="K25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="L25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="M25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="N25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="O25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="P25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="R25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="S25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="T25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="U25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="V25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="W25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="X25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801429</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C26" t="n">
-        <v>886.1595461907651</v>
+        <v>886.1595461907657</v>
       </c>
       <c r="D26" t="n">
-        <v>759.9863691234784</v>
+        <v>759.986369123479</v>
       </c>
       <c r="E26" t="n">
-        <v>599.7659673901221</v>
+        <v>599.7659673901228</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5048206281017</v>
+        <v>407.5048206281025</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4586982720948</v>
+        <v>199.458698272095</v>
       </c>
       <c r="H26" t="n">
         <v>64.06489698532368</v>
@@ -6224,31 +6224,31 @@
         <v>36.09092491936867</v>
       </c>
       <c r="J26" t="n">
-        <v>171.800513136528</v>
+        <v>171.8005131365275</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3583775511681</v>
+        <v>377.3583775511677</v>
       </c>
       <c r="L26" t="n">
-        <v>636.6544414676675</v>
+        <v>636.6544414676671</v>
       </c>
       <c r="M26" t="n">
-        <v>930.2992674717251</v>
+        <v>930.2992674717248</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.443271931582</v>
+        <v>1218.443271931581</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823418</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q26" t="n">
         <v>1786.013205691</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S26" t="n">
         <v>1790.013473208037</v>
@@ -6257,16 +6257,16 @@
         <v>1780.363449404579</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.697910668953</v>
+        <v>1742.697910668954</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.587739695682</v>
+        <v>1633.587739695683</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.289002847042</v>
+        <v>1507.289002847043</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.882942292403</v>
+        <v>1358.882942292404</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.746727067316</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>53.81771703419029</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="C27" t="n">
-        <v>53.81771703419029</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="D27" t="n">
-        <v>53.81771703419029</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="E27" t="n">
-        <v>53.81771703419029</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="F27" t="n">
-        <v>53.81771703419029</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="G27" t="n">
         <v>36.09092491936867</v>
@@ -6327,28 +6327,28 @@
         <v>801.5495631391819</v>
       </c>
       <c r="R27" t="n">
-        <v>801.5495631391819</v>
+        <v>783.8227710243602</v>
       </c>
       <c r="S27" t="n">
-        <v>608.1419421553123</v>
+        <v>590.4151500404906</v>
       </c>
       <c r="T27" t="n">
-        <v>391.025294714314</v>
+        <v>588.3093251708191</v>
       </c>
       <c r="U27" t="n">
-        <v>151.4014015629339</v>
+        <v>563.6962545907658</v>
       </c>
       <c r="V27" t="n">
-        <v>123.3325060378947</v>
+        <v>320.6165364943998</v>
       </c>
       <c r="W27" t="n">
-        <v>68.94475933951279</v>
+        <v>266.2287897960179</v>
       </c>
       <c r="X27" t="n">
-        <v>64.44758752753589</v>
+        <v>261.731617984041</v>
       </c>
       <c r="Y27" t="n">
-        <v>53.81771703419029</v>
+        <v>36.09092491936867</v>
       </c>
     </row>
     <row r="28">
@@ -6370,37 +6370,37 @@
         <v>36.09092491936867</v>
       </c>
       <c r="F28" t="n">
-        <v>109.2854187252638</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="G28" t="n">
-        <v>153.0089977755289</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="H28" t="n">
-        <v>153.0089977755289</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="I28" t="n">
-        <v>200.6942183901337</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="J28" t="n">
-        <v>200.6942183901337</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="K28" t="n">
-        <v>200.6942183901337</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="L28" t="n">
-        <v>200.6942183901337</v>
+        <v>215.7716343178211</v>
       </c>
       <c r="M28" t="n">
-        <v>200.6942183901337</v>
+        <v>215.7716343178211</v>
       </c>
       <c r="N28" t="n">
-        <v>200.6942183901337</v>
+        <v>215.7716343178211</v>
       </c>
       <c r="O28" t="n">
-        <v>200.6942183901337</v>
+        <v>215.7716343178211</v>
       </c>
       <c r="P28" t="n">
-        <v>270.6328299641015</v>
+        <v>215.7716343178211</v>
       </c>
       <c r="Q28" t="n">
         <v>270.6328299641015</v>
@@ -6421,10 +6421,10 @@
         <v>127.7972807526069</v>
       </c>
       <c r="W28" t="n">
-        <v>49.56496484985756</v>
+        <v>49.56496484985755</v>
       </c>
       <c r="X28" t="n">
-        <v>40.41472135225246</v>
+        <v>40.41472135225245</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09092491936867</v>
@@ -6440,22 +6440,22 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C29" t="n">
-        <v>886.1595461907652</v>
+        <v>886.1595461907655</v>
       </c>
       <c r="D29" t="n">
-        <v>759.9863691234787</v>
+        <v>759.9863691234789</v>
       </c>
       <c r="E29" t="n">
-        <v>599.7659673901223</v>
+        <v>599.7659673901227</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5048206281019</v>
+        <v>407.5048206281026</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4586982720944</v>
+        <v>199.4586982720951</v>
       </c>
       <c r="H29" t="n">
-        <v>64.06489698532368</v>
+        <v>64.06489698532414</v>
       </c>
       <c r="I29" t="n">
         <v>36.09092491936867</v>
@@ -6464,13 +6464,13 @@
         <v>171.8005131365276</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3583775511677</v>
+        <v>377.3583775511678</v>
       </c>
       <c r="L29" t="n">
-        <v>636.6544414676671</v>
+        <v>636.6544414676673</v>
       </c>
       <c r="M29" t="n">
-        <v>930.2992674717248</v>
+        <v>930.299267471725</v>
       </c>
       <c r="N29" t="n">
         <v>1218.443271931581</v>
@@ -6479,22 +6479,22 @@
         <v>1465.363879823418</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q29" t="n">
         <v>1786.013205691</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.013473208037</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T29" t="n">
         <v>1780.363449404579</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V29" t="n">
         <v>1633.587739695682</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="C30" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="D30" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="E30" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="F30" t="n">
         <v>36.09092491936867</v>
@@ -6564,28 +6564,28 @@
         <v>801.5495631391819</v>
       </c>
       <c r="R30" t="n">
-        <v>801.5495631391819</v>
+        <v>665.8648257447073</v>
       </c>
       <c r="S30" t="n">
-        <v>801.5495631391819</v>
+        <v>665.8648257447073</v>
       </c>
       <c r="T30" t="n">
-        <v>584.4329156981836</v>
+        <v>663.7590008750358</v>
       </c>
       <c r="U30" t="n">
-        <v>559.8198451181303</v>
+        <v>639.1459302949826</v>
       </c>
       <c r="V30" t="n">
-        <v>481.0442527771557</v>
+        <v>611.0770347699435</v>
       </c>
       <c r="W30" t="n">
-        <v>426.6565060787738</v>
+        <v>341.6784655002348</v>
       </c>
       <c r="X30" t="n">
-        <v>422.1593342667969</v>
+        <v>337.1812936882579</v>
       </c>
       <c r="Y30" t="n">
-        <v>196.5186412021246</v>
+        <v>111.5406006235856</v>
       </c>
     </row>
     <row r="31">
@@ -6601,67 +6601,67 @@
         <v>36.09092491936867</v>
       </c>
       <c r="D31" t="n">
-        <v>103.0922083733224</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="E31" t="n">
-        <v>103.0922083733224</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="F31" t="n">
-        <v>103.0922083733224</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="G31" t="n">
-        <v>103.0922083733224</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0922083733224</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="I31" t="n">
-        <v>103.0922083733224</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="J31" t="n">
-        <v>103.0922083733224</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="K31" t="n">
-        <v>103.0922083733224</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="L31" t="n">
-        <v>103.0922083733224</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="M31" t="n">
-        <v>103.0922083733224</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="N31" t="n">
-        <v>117.1608992936122</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="O31" t="n">
-        <v>117.1608992936122</v>
+        <v>117.1608992936115</v>
       </c>
       <c r="P31" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641009</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641009</v>
       </c>
       <c r="R31" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641009</v>
       </c>
       <c r="S31" t="n">
-        <v>247.9206018387764</v>
+        <v>247.9206018387759</v>
       </c>
       <c r="T31" t="n">
-        <v>236.9324876316159</v>
+        <v>236.9324876316155</v>
       </c>
       <c r="U31" t="n">
-        <v>160.3713220039568</v>
+        <v>160.3713220039565</v>
       </c>
       <c r="V31" t="n">
-        <v>127.7972807526069</v>
+        <v>127.7972807526066</v>
       </c>
       <c r="W31" t="n">
-        <v>49.56496484985756</v>
+        <v>49.56496484985738</v>
       </c>
       <c r="X31" t="n">
-        <v>40.41472135225246</v>
+        <v>40.41472135225236</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09092491936867</v>
@@ -6677,37 +6677,37 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C32" t="n">
-        <v>886.159546190765</v>
+        <v>886.1595461907649</v>
       </c>
       <c r="D32" t="n">
-        <v>759.9863691234783</v>
+        <v>759.9863691234782</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7659673901221</v>
+        <v>599.7659673901219</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5048206281018</v>
+        <v>407.5048206281016</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4586982720944</v>
+        <v>199.4586982720949</v>
       </c>
       <c r="H32" t="n">
-        <v>64.06489698532366</v>
+        <v>64.06489698532371</v>
       </c>
       <c r="I32" t="n">
         <v>36.09092491936867</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8005131365276</v>
+        <v>171.8005131365275</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3583775511678</v>
+        <v>377.3583775511677</v>
       </c>
       <c r="L32" t="n">
-        <v>636.6544414676672</v>
+        <v>636.6544414676671</v>
       </c>
       <c r="M32" t="n">
-        <v>930.2992674717249</v>
+        <v>930.2992674717248</v>
       </c>
       <c r="N32" t="n">
         <v>1218.443271931581</v>
@@ -6716,19 +6716,19 @@
         <v>1465.363879823418</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.013205691</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.013473208036</v>
+        <v>1790.013473208037</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.363449404578</v>
+        <v>1780.363449404579</v>
       </c>
       <c r="U32" t="n">
         <v>1742.697910668953</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.5186412021246</v>
+        <v>105.4156433404682</v>
       </c>
       <c r="C33" t="n">
-        <v>196.5186412021246</v>
+        <v>105.4156433404682</v>
       </c>
       <c r="D33" t="n">
-        <v>196.5186412021246</v>
+        <v>105.4156433404682</v>
       </c>
       <c r="E33" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="F33" t="n">
         <v>36.09092491936867</v>
@@ -6798,31 +6798,31 @@
         <v>801.5495631391819</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="R33" t="n">
-        <v>801.5495631391819</v>
+        <v>659.7398684615903</v>
       </c>
       <c r="S33" t="n">
-        <v>750.8428663232464</v>
+        <v>659.7398684615903</v>
       </c>
       <c r="T33" t="n">
-        <v>533.7262188822481</v>
+        <v>442.6232210205919</v>
       </c>
       <c r="U33" t="n">
-        <v>509.1131483021948</v>
+        <v>202.9993278692118</v>
       </c>
       <c r="V33" t="n">
-        <v>481.0442527771557</v>
+        <v>174.9304323441727</v>
       </c>
       <c r="W33" t="n">
-        <v>426.6565060787738</v>
+        <v>120.5426856457907</v>
       </c>
       <c r="X33" t="n">
-        <v>207.1485116954701</v>
+        <v>116.0455138338138</v>
       </c>
       <c r="Y33" t="n">
-        <v>196.5186412021246</v>
+        <v>105.4156433404682</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>36.09092491936867</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09092491936867</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09092491936867</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09092491936867</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09092491936867</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09092491936867</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="H34" t="n">
-        <v>36.09092491936867</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="I34" t="n">
-        <v>36.09092491936867</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="J34" t="n">
-        <v>36.09092491936867</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="K34" t="n">
-        <v>36.09092491936867</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="L34" t="n">
-        <v>36.09092491936867</v>
+        <v>261.7111323577258</v>
       </c>
       <c r="M34" t="n">
-        <v>36.09092491936867</v>
+        <v>261.7111323577258</v>
       </c>
       <c r="N34" t="n">
-        <v>36.09092491936867</v>
+        <v>261.7111323577258</v>
       </c>
       <c r="O34" t="n">
-        <v>36.09092491936867</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="P34" t="n">
-        <v>175.8348305631715</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="Q34" t="n">
-        <v>261.0608186465664</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="R34" t="n">
-        <v>270.6328299641013</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="S34" t="n">
-        <v>247.9206018387763</v>
+        <v>247.9206018387766</v>
       </c>
       <c r="T34" t="n">
-        <v>236.9324876316158</v>
+        <v>236.9324876316161</v>
       </c>
       <c r="U34" t="n">
-        <v>160.3713220039567</v>
+        <v>160.3713220039569</v>
       </c>
       <c r="V34" t="n">
-        <v>127.7972807526068</v>
+        <v>127.797280752607</v>
       </c>
       <c r="W34" t="n">
-        <v>49.5649648498575</v>
+        <v>49.56496484985761</v>
       </c>
       <c r="X34" t="n">
-        <v>40.41472135225243</v>
+        <v>40.41472135225248</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09092491936867</v>
@@ -6935,10 +6935,10 @@
         <v>28.17573240056726</v>
       </c>
       <c r="J35" t="n">
-        <v>191.3026106395686</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K35" t="n">
-        <v>424.2777650760513</v>
+        <v>234.8434947747481</v>
       </c>
       <c r="L35" t="n">
         <v>521.5568487130899</v>
@@ -7035,28 +7035,28 @@
         <v>793.6343706203805</v>
       </c>
       <c r="Q36" t="n">
-        <v>787.5094133372635</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="R36" t="n">
-        <v>787.5094133372635</v>
+        <v>730.7007392646099</v>
       </c>
       <c r="S36" t="n">
-        <v>787.5094133372635</v>
+        <v>537.2931182807403</v>
       </c>
       <c r="T36" t="n">
-        <v>787.5094133372635</v>
+        <v>537.2931182807403</v>
       </c>
       <c r="U36" t="n">
-        <v>787.5094133372635</v>
+        <v>297.6692251293601</v>
       </c>
       <c r="V36" t="n">
-        <v>742.7229891182519</v>
+        <v>54.58950703299421</v>
       </c>
       <c r="W36" t="n">
-        <v>473.3244198485432</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X36" t="n">
-        <v>253.8164254652396</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y36" t="n">
         <v>28.17573240056726</v>
@@ -7075,22 +7075,22 @@
         <v>28.17573240056726</v>
       </c>
       <c r="D37" t="n">
-        <v>33.73132156056361</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E37" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F37" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="G37" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H37" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I37" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J37" t="n">
         <v>131.6213389844607</v>
@@ -7157,10 +7157,10 @@
         <v>612.2013162749022</v>
       </c>
       <c r="E38" t="n">
-        <v>479.9548866075009</v>
+        <v>479.954886607501</v>
       </c>
       <c r="F38" t="n">
-        <v>315.6677119114356</v>
+        <v>315.6677119114357</v>
       </c>
       <c r="G38" t="n">
         <v>135.5955616213834</v>
@@ -7178,28 +7178,28 @@
         <v>191.3026106395686</v>
       </c>
       <c r="L38" t="n">
-        <v>478.0159645779104</v>
+        <v>301.3667531811637</v>
       </c>
       <c r="M38" t="n">
-        <v>799.0780806038106</v>
+        <v>622.4288692070638</v>
       </c>
       <c r="N38" t="n">
-        <v>876.4899778615099</v>
+        <v>937.9901636887629</v>
       </c>
       <c r="O38" t="n">
-        <v>1150.827875775189</v>
+        <v>974.1786643784424</v>
       </c>
       <c r="P38" t="n">
-        <v>1181.107235383051</v>
+        <v>1199.066537075125</v>
       </c>
       <c r="Q38" t="n">
-        <v>1331.703268597635</v>
+        <v>1349.662570289709</v>
       </c>
       <c r="R38" t="n">
-        <v>1377.653598896911</v>
+        <v>1395.612900588985</v>
       </c>
       <c r="S38" t="n">
-        <v>1390.827318336289</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="T38" t="n">
         <v>1408.786620028362</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="C39" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="D39" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="E39" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="F39" t="n">
         <v>28.17573240056725</v>
@@ -7278,25 +7278,25 @@
         <v>793.6343706203805</v>
       </c>
       <c r="S39" t="n">
-        <v>697.7208345634962</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="T39" t="n">
-        <v>697.7208345634962</v>
+        <v>780.2779129180219</v>
       </c>
       <c r="U39" t="n">
-        <v>458.0969414121161</v>
+        <v>540.6540197666418</v>
       </c>
       <c r="V39" t="n">
-        <v>215.0172233157501</v>
+        <v>297.5743016702759</v>
       </c>
       <c r="W39" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="X39" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="Y39" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056725</v>
       </c>
     </row>
     <row r="40">
@@ -7309,49 +7309,49 @@
         <v>28.17573240056725</v>
       </c>
       <c r="C40" t="n">
-        <v>101.5325204623144</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="D40" t="n">
-        <v>101.5325204623144</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="E40" t="n">
-        <v>101.5325204623144</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="F40" t="n">
-        <v>101.5325204623144</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="G40" t="n">
-        <v>101.5325204623144</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="H40" t="n">
-        <v>101.5325204623144</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I40" t="n">
-        <v>101.5325204623144</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J40" t="n">
-        <v>101.5325204623144</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K40" t="n">
-        <v>101.5325204623144</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="L40" t="n">
-        <v>101.5325204623144</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="M40" t="n">
-        <v>101.5325204623144</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="N40" t="n">
-        <v>101.5325204623144</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="O40" t="n">
-        <v>101.5325204623144</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5325204623144</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.5325204623144</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="R40" t="n">
         <v>131.6213389844607</v>
@@ -7412,16 +7412,16 @@
         <v>191.3026106395686</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2777650760513</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="L41" t="n">
-        <v>521.5568487130899</v>
+        <v>239.8665673539107</v>
       </c>
       <c r="M41" t="n">
-        <v>842.61896473899</v>
+        <v>366.3201702909905</v>
       </c>
       <c r="N41" t="n">
-        <v>920.0308619966894</v>
+        <v>681.8814647726896</v>
       </c>
       <c r="O41" t="n">
         <v>956.2193626863689</v>
@@ -7509,28 +7509,28 @@
         <v>793.6343706203805</v>
       </c>
       <c r="Q42" t="n">
-        <v>787.5094133372635</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="R42" t="n">
-        <v>787.5094133372635</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="S42" t="n">
-        <v>787.5094133372635</v>
+        <v>600.2267496365109</v>
       </c>
       <c r="T42" t="n">
-        <v>787.5094133372635</v>
+        <v>383.1101021955126</v>
       </c>
       <c r="U42" t="n">
-        <v>742.8179125773361</v>
+        <v>297.6692251293601</v>
       </c>
       <c r="V42" t="n">
-        <v>499.7381944809702</v>
+        <v>54.58950703299421</v>
       </c>
       <c r="W42" t="n">
-        <v>473.3244198485432</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X42" t="n">
-        <v>253.8164254652396</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y42" t="n">
         <v>28.17573240056726</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.62486877040697</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C43" t="n">
-        <v>46.62486877040697</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D43" t="n">
-        <v>94.63203764508324</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E43" t="n">
-        <v>94.63203764508324</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F43" t="n">
         <v>94.63203764508324</v>
@@ -7609,10 +7609,10 @@
         <v>28.17573240056726</v>
       </c>
       <c r="X43" t="n">
-        <v>46.62486877040697</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.62486877040697</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
     <row r="44">
@@ -7646,34 +7646,34 @@
         <v>28.17573240056726</v>
       </c>
       <c r="J44" t="n">
-        <v>191.3026106395686</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2777650760514</v>
+        <v>261.15088683705</v>
       </c>
       <c r="L44" t="n">
-        <v>472.8417217903935</v>
+        <v>309.7148435513922</v>
       </c>
       <c r="M44" t="n">
-        <v>555.7544405922939</v>
+        <v>630.7769595772924</v>
       </c>
       <c r="N44" t="n">
-        <v>681.8814647726891</v>
+        <v>850.4367996793464</v>
       </c>
       <c r="O44" t="n">
-        <v>956.2193626863685</v>
+        <v>1124.774697593026</v>
       </c>
       <c r="P44" t="n">
-        <v>1181.107235383051</v>
+        <v>1349.662570289709</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.703268597635</v>
+        <v>1349.662570289709</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.653598896911</v>
+        <v>1395.612900588985</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.827318336289</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="T44" t="n">
         <v>1408.786620028363</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>309.9673019717088</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C45" t="n">
-        <v>309.9673019717088</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D45" t="n">
-        <v>309.9673019717088</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E45" t="n">
-        <v>136.4040980931232</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F45" t="n">
-        <v>136.4040980931232</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="G45" t="n">
-        <v>136.4040980931232</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H45" t="n">
-        <v>136.4040980931232</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I45" t="n">
         <v>28.17573240056726</v>
@@ -7752,25 +7752,25 @@
         <v>793.634370620381</v>
       </c>
       <c r="S45" t="n">
-        <v>600.2267496365114</v>
+        <v>793.634370620381</v>
       </c>
       <c r="T45" t="n">
-        <v>600.2267496365114</v>
+        <v>576.5177231793826</v>
       </c>
       <c r="U45" t="n">
-        <v>600.2267496365114</v>
+        <v>576.5177231793826</v>
       </c>
       <c r="V45" t="n">
-        <v>579.3658712414174</v>
+        <v>333.4380050830167</v>
       </c>
       <c r="W45" t="n">
-        <v>309.9673019717088</v>
+        <v>253.8164254652396</v>
       </c>
       <c r="X45" t="n">
-        <v>309.9673019717088</v>
+        <v>253.8164254652396</v>
       </c>
       <c r="Y45" t="n">
-        <v>309.9673019717088</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
     <row r="46">
@@ -7789,49 +7789,49 @@
         <v>28.17573240056726</v>
       </c>
       <c r="E46" t="n">
-        <v>126.0657498244643</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F46" t="n">
-        <v>126.0657498244643</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="G46" t="n">
-        <v>126.0657498244643</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H46" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I46" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J46" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K46" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="L46" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="M46" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="N46" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="O46" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="P46" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.6213389844607</v>
+        <v>77.98419835767876</v>
       </c>
       <c r="R46" t="n">
-        <v>131.6213389844607</v>
+        <v>114.9734996970562</v>
       </c>
       <c r="S46" t="n">
-        <v>131.6213389844607</v>
+        <v>114.9734996970562</v>
       </c>
       <c r="T46" t="n">
         <v>131.6213389844607</v>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>219.3557975125987</v>
+        <v>219.3557975125986</v>
       </c>
       <c r="M12" t="n">
-        <v>125.9329145589352</v>
+        <v>215.6056533098495</v>
       </c>
       <c r="N12" t="n">
-        <v>200.9373406025672</v>
+        <v>170.8384307724742</v>
       </c>
       <c r="O12" t="n">
-        <v>219.6296017271815</v>
+        <v>120.6896952421637</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9009,19 +9009,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>219.3557975125987</v>
+        <v>219.3557975125986</v>
       </c>
       <c r="M15" t="n">
-        <v>215.6056533098496</v>
+        <v>215.6056533098495</v>
       </c>
       <c r="N15" t="n">
-        <v>170.8384307724744</v>
+        <v>200.9373406025671</v>
       </c>
       <c r="O15" t="n">
-        <v>120.6896952421637</v>
+        <v>176.2659521837926</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6887073069575</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9246,19 +9246,19 @@
         <v>132.0073960199548</v>
       </c>
       <c r="L18" t="n">
-        <v>129.6830587616843</v>
+        <v>219.3557975125986</v>
       </c>
       <c r="M18" t="n">
-        <v>215.6056533098496</v>
+        <v>211.6080813306568</v>
       </c>
       <c r="N18" t="n">
-        <v>200.9373406025672</v>
+        <v>200.9373406025671</v>
       </c>
       <c r="O18" t="n">
-        <v>219.6296017271815</v>
+        <v>219.6296017271814</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6887073069575</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,16 +9483,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>120.4158910275809</v>
+        <v>189.2568876825057</v>
       </c>
       <c r="M21" t="n">
-        <v>185.5067434797568</v>
+        <v>215.6056533098495</v>
       </c>
       <c r="N21" t="n">
-        <v>200.9373406025672</v>
+        <v>101.9974341175494</v>
       </c>
       <c r="O21" t="n">
-        <v>219.6296017271815</v>
+        <v>219.6296017271814</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>219.3557975125987</v>
+        <v>219.3557975125988</v>
       </c>
       <c r="M24" t="n">
-        <v>215.6056533098496</v>
+        <v>116.6657468248318</v>
       </c>
       <c r="N24" t="n">
-        <v>196.9397686233746</v>
+        <v>200.9373406025672</v>
       </c>
       <c r="O24" t="n">
-        <v>219.6296017271815</v>
+        <v>219.6296017271816</v>
       </c>
       <c r="P24" t="n">
-        <v>120.6887073069575</v>
+        <v>176.2649642485865</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.7313831925514</v>
+        <v>173.7313831925513</v>
       </c>
       <c r="C11" t="n">
-        <v>149.8496401958969</v>
+        <v>149.8496401958968</v>
       </c>
       <c r="D11" t="n">
-        <v>137.4163024569453</v>
+        <v>137.4163024569452</v>
       </c>
       <c r="E11" t="n">
-        <v>83.97678524435059</v>
+        <v>171.1230548763541</v>
       </c>
       <c r="F11" t="n">
-        <v>103.9034859697138</v>
+        <v>202.8433924547314</v>
       </c>
       <c r="G11" t="n">
-        <v>119.5306118077611</v>
+        <v>218.4705182927788</v>
       </c>
       <c r="H11" t="n">
-        <v>47.60481394921712</v>
+        <v>146.5447204342348</v>
       </c>
       <c r="I11" t="n">
-        <v>40.199089505627</v>
+        <v>40.19908950562687</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89230219312415</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22.05838072575468</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>49.79374050860079</v>
+        <v>11.59815379547587</v>
       </c>
       <c r="V11" t="n">
-        <v>120.5239264238701</v>
+        <v>21.58401993885229</v>
       </c>
       <c r="W11" t="n">
-        <v>137.540606640485</v>
+        <v>38.60070015546717</v>
       </c>
       <c r="X11" t="n">
-        <v>159.4268571094242</v>
+        <v>159.4268571094241</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.929710233168</v>
+        <v>82.98980374815017</v>
       </c>
     </row>
     <row r="12">
@@ -23501,19 +23501,19 @@
         <v>137.4163024569453</v>
       </c>
       <c r="E14" t="n">
-        <v>74.1866511838388</v>
+        <v>171.1230548763542</v>
       </c>
       <c r="F14" t="n">
         <v>202.8433924547315</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4705182927789</v>
+        <v>119.5306118077612</v>
       </c>
       <c r="H14" t="n">
-        <v>47.60481394921712</v>
+        <v>146.5447204342349</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.19908950562697</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>26.89230219312412</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>49.7937405086008</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>120.5239264238701</v>
+        <v>21.58401993885238</v>
       </c>
       <c r="W14" t="n">
-        <v>137.540606640485</v>
+        <v>38.60070015546725</v>
       </c>
       <c r="X14" t="n">
-        <v>60.4869506244064</v>
+        <v>144.1327087117761</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.929710233168</v>
+        <v>181.9297102331679</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.094235813070554e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751673.7159874396</v>
+        <v>751673.7159874395</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859936.118345739</v>
+        <v>859936.1183457391</v>
       </c>
     </row>
     <row r="9">
@@ -26314,46 +26314,46 @@
         <v>771690.4957794019</v>
       </c>
       <c r="C2" t="n">
-        <v>771690.4957794021</v>
+        <v>771690.4957794022</v>
       </c>
       <c r="D2" t="n">
-        <v>771690.4957794021</v>
+        <v>771690.4957794022</v>
       </c>
       <c r="E2" t="n">
-        <v>664991.3278929191</v>
+        <v>664991.3278929192</v>
       </c>
       <c r="F2" t="n">
-        <v>664991.3278929191</v>
+        <v>664991.3278929192</v>
       </c>
       <c r="G2" t="n">
+        <v>773253.7302512189</v>
+      </c>
+      <c r="H2" t="n">
+        <v>773253.7302512194</v>
+      </c>
+      <c r="I2" t="n">
         <v>773253.7302512188</v>
       </c>
-      <c r="H2" t="n">
-        <v>773253.7302512188</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>773253.7302512199</v>
+      </c>
+      <c r="K2" t="n">
+        <v>773253.7302512195</v>
+      </c>
+      <c r="L2" t="n">
+        <v>773253.7302512201</v>
+      </c>
+      <c r="M2" t="n">
+        <v>773253.7302512194</v>
+      </c>
+      <c r="N2" t="n">
         <v>773253.730251219</v>
       </c>
-      <c r="J2" t="n">
-        <v>773253.7302512198</v>
-      </c>
-      <c r="K2" t="n">
-        <v>773253.7302512202</v>
-      </c>
-      <c r="L2" t="n">
-        <v>773253.7302512197</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>773253.7302512191</v>
       </c>
-      <c r="N2" t="n">
-        <v>773253.7302512192</v>
-      </c>
-      <c r="O2" t="n">
-        <v>773253.7302512192</v>
-      </c>
       <c r="P2" t="n">
-        <v>773253.7302512189</v>
+        <v>773253.730251219</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>273465.044586805</v>
+        <v>273465.0445868052</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>103592.8157439611</v>
+        <v>103592.815743961</v>
       </c>
       <c r="M3" t="n">
-        <v>22155.38587623623</v>
+        <v>22155.38587623637</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>467253.6573030353</v>
       </c>
       <c r="E4" t="n">
-        <v>361182.2424006843</v>
+        <v>361182.2424006844</v>
       </c>
       <c r="F4" t="n">
         <v>361182.2424006843</v>
@@ -26442,16 +26442,16 @@
         <v>430647.4817506726</v>
       </c>
       <c r="K4" t="n">
+        <v>430647.4817506727</v>
+      </c>
+      <c r="L4" t="n">
         <v>430647.4817506726</v>
-      </c>
-      <c r="L4" t="n">
-        <v>430647.4817506727</v>
       </c>
       <c r="M4" t="n">
         <v>430205.641534786</v>
       </c>
       <c r="N4" t="n">
-        <v>430205.6415347859</v>
+        <v>430205.641534786</v>
       </c>
       <c r="O4" t="n">
         <v>430205.641534786</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>25128.77385439977</v>
+        <v>25128.77385439978</v>
       </c>
       <c r="F5" t="n">
         <v>25128.77385439977</v>
       </c>
       <c r="G5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="H5" t="n">
         <v>36014.9543878736</v>
       </c>
       <c r="I5" t="n">
-        <v>36014.9543878736</v>
+        <v>36014.95438787361</v>
       </c>
       <c r="J5" t="n">
         <v>47593.60131544279</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270809.2384763666</v>
+        <v>270804.7720921614</v>
       </c>
       <c r="C6" t="n">
-        <v>270809.2384763668</v>
+        <v>270804.7720921617</v>
       </c>
       <c r="D6" t="n">
-        <v>270809.2384763669</v>
+        <v>270804.7720921618</v>
       </c>
       <c r="E6" t="n">
-        <v>5215.267051029976</v>
+        <v>4905.945901434715</v>
       </c>
       <c r="F6" t="n">
-        <v>278680.311637835</v>
+        <v>278370.9904882401</v>
       </c>
       <c r="G6" t="n">
-        <v>201945.1512054833</v>
+        <v>201945.1512054835</v>
       </c>
       <c r="H6" t="n">
-        <v>305537.9669494446</v>
+        <v>305537.966949445</v>
       </c>
       <c r="I6" t="n">
-        <v>305537.9669494447</v>
+        <v>305537.9669494444</v>
       </c>
       <c r="J6" t="n">
         <v>136166.7498498995</v>
       </c>
       <c r="K6" t="n">
-        <v>295012.6471851048</v>
+        <v>295012.647185104</v>
       </c>
       <c r="L6" t="n">
-        <v>191419.8314411431</v>
+        <v>191419.8314411437</v>
       </c>
       <c r="M6" t="n">
-        <v>276986.4214200065</v>
+        <v>276986.4214200067</v>
       </c>
       <c r="N6" t="n">
-        <v>299141.807296243</v>
+        <v>299141.8072962427</v>
       </c>
       <c r="O6" t="n">
-        <v>232446.0515637131</v>
+        <v>232446.051563713</v>
       </c>
       <c r="P6" t="n">
-        <v>299141.8072962426</v>
+        <v>299141.8072962428</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G2" t="n">
         <v>329.8468768652333</v>
       </c>
       <c r="H2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="J2" t="n">
         <v>212.8607143456135</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="M2" t="n">
         <v>240.5549466909089</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="F4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="G4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="H4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="I4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1365614921084</v>
+        <v>451.1365614921083</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1365614921084</v>
+        <v>451.1365614921083</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1365614921084</v>
+        <v>451.1365614921083</v>
       </c>
       <c r="M4" t="n">
         <v>352.1966550070907</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.4910196799514</v>
+        <v>129.4910196799513</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799514</v>
+        <v>129.4910196799512</v>
       </c>
       <c r="M2" t="n">
-        <v>27.69423234529529</v>
+        <v>27.69423234529546</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070905</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799514</v>
+        <v>129.4910196799513</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,49 +28087,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="C11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="D11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="H11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="J11" t="n">
         <v>75.78032220706916</v>
       </c>
       <c r="K11" t="n">
-        <v>99.55055761549518</v>
+        <v>29.7499850126562</v>
       </c>
       <c r="L11" t="n">
-        <v>49.88540475335913</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>20.74607087117997</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.39547932052248</v>
+        <v>112.3353858055401</v>
       </c>
       <c r="Q11" t="n">
         <v>88.43774142365251</v>
@@ -28138,25 +28138,25 @@
         <v>194.140471641135</v>
       </c>
       <c r="S11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="12">
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R12" t="n">
-        <v>35.38798353551201</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4735447740309</v>
+        <v>92.5336382890132</v>
       </c>
       <c r="T12" t="n">
-        <v>195.3936569704759</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U12" t="n">
-        <v>200.3558571852819</v>
+        <v>138.2877477348486</v>
       </c>
       <c r="V12" t="n">
-        <v>200.3558571852819</v>
+        <v>175.4865811743491</v>
       </c>
       <c r="W12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y12" t="n">
-        <v>124.4443796490078</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="13">
@@ -28245,40 +28245,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>200.3558571852819</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>200.3558571852819</v>
+        <v>168.9420409423122</v>
       </c>
       <c r="D13" t="n">
-        <v>200.3558571852819</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>200.3558571852819</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6954829817093</v>
+        <v>200.355857185282</v>
       </c>
       <c r="H13" t="n">
         <v>165.7773474488177</v>
       </c>
       <c r="I13" t="n">
-        <v>164.6938248359117</v>
+        <v>200.355857185282</v>
       </c>
       <c r="J13" t="n">
-        <v>200.3558571852819</v>
+        <v>119.8654670400798</v>
       </c>
       <c r="K13" t="n">
-        <v>83.12130600275401</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L13" t="n">
-        <v>31.36504828657057</v>
+        <v>130.3049547715882</v>
       </c>
       <c r="M13" t="n">
-        <v>24.38732889638567</v>
+        <v>123.3272353814034</v>
       </c>
       <c r="N13" t="n">
         <v>15.71034539069795</v>
@@ -28293,28 +28293,28 @@
         <v>126.7738576957197</v>
       </c>
       <c r="R13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="S13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="C14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="D14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="H14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="J14" t="n">
-        <v>75.78032220706916</v>
+        <v>174.7202286920868</v>
       </c>
       <c r="K14" t="n">
-        <v>5.226507866178949</v>
+        <v>50.49605588383616</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>52.44964179403312</v>
+        <v>13.39547932052248</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.3776479086703</v>
+        <v>88.43774142365251</v>
       </c>
       <c r="R14" t="n">
-        <v>200.3558571852819</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="15">
@@ -28427,7 +28427,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551212</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4735447740309</v>
+        <v>166.6042687630983</v>
       </c>
       <c r="T15" t="n">
-        <v>116.0055744815706</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U15" t="n">
-        <v>156.7713605475856</v>
+        <v>138.2877477348486</v>
       </c>
       <c r="V15" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W15" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X15" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="16">
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>200.355857185282</v>
       </c>
       <c r="C16" t="n">
-        <v>200.3558571852819</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E16" t="n">
-        <v>200.3558571852819</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>200.3558571852819</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>168.6954829817093</v>
@@ -28512,46 +28512,46 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L16" t="n">
-        <v>31.36504828657057</v>
+        <v>130.3049547715882</v>
       </c>
       <c r="M16" t="n">
-        <v>24.38732889638567</v>
+        <v>123.3272353814033</v>
       </c>
       <c r="N16" t="n">
-        <v>36.70591927806175</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O16" t="n">
-        <v>36.73089156368813</v>
+        <v>90.05498959892195</v>
       </c>
       <c r="P16" t="n">
-        <v>156.7784686382178</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7738576957197</v>
       </c>
       <c r="R16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="S16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>329.8468768652333</v>
       </c>
       <c r="I17" t="n">
-        <v>305.0671220222337</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J17" t="n">
         <v>75.78032220706916</v>
@@ -28591,7 +28591,7 @@
         <v>5.226507866178949</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>45.26954801765724</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28609,7 +28609,7 @@
         <v>88.43774142365251</v>
       </c>
       <c r="R17" t="n">
-        <v>194.140471641135</v>
+        <v>293.0803781261527</v>
       </c>
       <c r="S17" t="n">
         <v>227.2481593784061</v>
@@ -28618,7 +28618,7 @@
         <v>222.4142379110366</v>
       </c>
       <c r="U17" t="n">
-        <v>329.8468768652333</v>
+        <v>250.1495976938827</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -28643,10 +28643,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>88.57824503934813</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>60.23240859156076</v>
+        <v>78.08975315486094</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551211</v>
       </c>
       <c r="S18" t="n">
-        <v>104.3272751420272</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T18" t="n">
         <v>214.9454809665884</v>
@@ -28703,13 +28703,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>167.7646770919939</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>118.3730079544529</v>
       </c>
       <c r="Y18" t="n">
-        <v>124.4443796490078</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28798,37 +28798,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="C20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="D20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="E20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="F20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="G20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I20" t="n">
-        <v>329.8468768652332</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J20" t="n">
         <v>75.78032220706916</v>
       </c>
       <c r="K20" t="n">
-        <v>51.17693893844888</v>
+        <v>5.226507866178949</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>45.26954801765724</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>194.140471641135</v>
       </c>
       <c r="S20" t="n">
-        <v>227.2481593784061</v>
+        <v>326.1880658634237</v>
       </c>
       <c r="T20" t="n">
         <v>222.4142379110366</v>
@@ -28858,16 +28858,16 @@
         <v>250.1495976938827</v>
       </c>
       <c r="V20" t="n">
-        <v>329.8468768652332</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="X20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="Y20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>77.81058791264806</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28901,7 +28901,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.38798353551201</v>
+        <v>35.38798353551212</v>
       </c>
       <c r="S21" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T21" t="n">
-        <v>185.7417239395609</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U21" t="n">
-        <v>138.2877477348485</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V21" t="n">
-        <v>141.7090144303845</v>
+        <v>159.5663589936846</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>118.3730079544529</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="C23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="D23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="E23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="F23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="G23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I23" t="n">
         <v>240.5549466909089</v>
@@ -29065,13 +29065,13 @@
         <v>5.226507866178949</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>34.7990112040635</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>20.74607087118015</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29089,22 +29089,22 @@
         <v>227.2481593784061</v>
       </c>
       <c r="T23" t="n">
-        <v>277.9593199862803</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="V23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="W23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="X23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
     </row>
     <row r="24">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.81058791264795</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29126,7 +29126,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>59.88353263491055</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7382922638873</v>
@@ -29162,16 +29162,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551194</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4735447740309</v>
+        <v>92.53363828901301</v>
       </c>
       <c r="T24" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276542198663</v>
+        <v>138.2877477348484</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>118.3730079544528</v>
+        <v>136.2303525177528</v>
       </c>
       <c r="Y24" t="n">
-        <v>142.3017242123079</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29314,7 +29314,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Q26" t="n">
         <v>212.8607143456135</v>
@@ -29366,7 +29366,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>131.1887680702139</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H27" t="n">
         <v>125.6745619188949</v>
@@ -29399,19 +29399,19 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3278900205298</v>
+        <v>116.7783658268563</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>212.8607143456135</v>
@@ -29420,7 +29420,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29442,16 +29442,16 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>212.8607143456135</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>212.8607143456135</v>
+        <v>168.6954829817093</v>
       </c>
       <c r="H28" t="n">
         <v>165.7773474488177</v>
       </c>
       <c r="I28" t="n">
-        <v>212.8607143456135</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J28" t="n">
         <v>119.8654670400798</v>
@@ -29460,7 +29460,7 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L28" t="n">
-        <v>31.36504828657057</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M28" t="n">
         <v>24.38732889638567</v>
@@ -29472,10 +29472,10 @@
         <v>36.73089156368813</v>
       </c>
       <c r="P28" t="n">
-        <v>128.4836243491271</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.7738576957197</v>
+        <v>182.1892068333766</v>
       </c>
       <c r="R28" t="n">
         <v>203.1920160450731</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="P29" t="n">
         <v>212.8607143456136</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>102.055315450491</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29600,7 +29600,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7382922638873</v>
@@ -29636,25 +29636,25 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V30" t="n">
-        <v>162.6610844978375</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>212.8607143456135</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29703,13 +29703,13 @@
         <v>24.38732889638567</v>
       </c>
       <c r="N31" t="n">
-        <v>29.92114430008156</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O31" t="n">
-        <v>36.73089156368813</v>
+        <v>118.6197545679738</v>
       </c>
       <c r="P31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Q31" t="n">
         <v>126.7738576957197</v>
@@ -29718,25 +29718,25 @@
         <v>203.1920160450731</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8607143456133</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Q32" t="n">
         <v>212.8607143456135</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="33">
@@ -29834,10 +29834,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>103.1961006029112</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7382922638873</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>141.2739149262547</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="34">
@@ -29907,7 +29907,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29934,7 +29934,7 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L34" t="n">
-        <v>31.36504828657057</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="M34" t="n">
         <v>24.38732889638567</v>
@@ -29943,37 +29943,37 @@
         <v>15.71034539069795</v>
       </c>
       <c r="O34" t="n">
-        <v>36.73089156368813</v>
+        <v>45.74270732770426</v>
       </c>
       <c r="P34" t="n">
-        <v>198.9940223994655</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q34" t="n">
-        <v>212.8607143456135</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R34" t="n">
-        <v>212.8607143456135</v>
+        <v>203.1920160450731</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J35" t="n">
+        <v>75.78032220706916</v>
+      </c>
+      <c r="K35" t="n">
+        <v>213.9818233956545</v>
+      </c>
+      <c r="L35" t="n">
         <v>240.5549466909089</v>
-      </c>
-      <c r="K35" t="n">
-        <v>240.5549466909089</v>
-      </c>
-      <c r="L35" t="n">
-        <v>49.20719891181477</v>
       </c>
       <c r="M35" t="n">
         <v>240.5549466909089</v>
@@ -30107,31 +30107,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3278900205298</v>
+        <v>72.02359497831682</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>196.3103609385808</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30147,10 +30147,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>150.7943564729293</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>240.5549466909089</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30165,7 +30165,7 @@
         <v>164.6938248359117</v>
       </c>
       <c r="J37" t="n">
-        <v>119.8654670400798</v>
+        <v>224.3559787409823</v>
       </c>
       <c r="K37" t="n">
         <v>66.41515229588839</v>
@@ -30250,19 +30250,19 @@
         <v>5.226507866178949</v>
       </c>
       <c r="L38" t="n">
-        <v>240.5549466909089</v>
+        <v>62.12139982550818</v>
       </c>
       <c r="M38" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>240.5549466909089</v>
-      </c>
-      <c r="P38" t="n">
-        <v>43.98069104563587</v>
       </c>
       <c r="Q38" t="n">
         <v>240.5549466909089</v>
@@ -30274,7 +30274,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="T38" t="n">
-        <v>240.5549466909089</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U38" t="n">
         <v>240.5549466909089</v>
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7382922638873</v>
@@ -30350,10 +30350,10 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S39" t="n">
-        <v>96.51914407771535</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9454809665884</v>
+        <v>201.7225878412533</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30381,7 +30381,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>240.5549466909089</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -30405,7 +30405,7 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K40" t="n">
-        <v>66.41515229588839</v>
+        <v>170.9056639967908</v>
       </c>
       <c r="L40" t="n">
         <v>31.36504828657057</v>
@@ -30426,7 +30426,7 @@
         <v>126.7738576957197</v>
       </c>
       <c r="R40" t="n">
-        <v>233.584762027039</v>
+        <v>203.1920160450731</v>
       </c>
       <c r="S40" t="n">
         <v>235.3458201896853</v>
@@ -30484,19 +30484,19 @@
         <v>240.5549466909089</v>
       </c>
       <c r="K41" t="n">
+        <v>5.226507866178949</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>43.98069104563588</v>
+      </c>
+      <c r="N41" t="n">
         <v>240.5549466909089</v>
       </c>
-      <c r="L41" t="n">
-        <v>49.20719891181477</v>
-      </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>240.5549466909089</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>240.5549466909089</v>
@@ -30581,19 +30581,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R42" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>192.9830684675381</v>
+        <v>152.6411859243754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,10 +30602,10 @@
         <v>240.5549466909089</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30621,13 +30621,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>193.674740023111</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>206.0544632735133</v>
       </c>
       <c r="G43" t="n">
         <v>168.6954829817093</v>
@@ -30681,7 +30681,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="X43" t="n">
-        <v>240.5549466909089</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -30718,7 +30718,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J44" t="n">
-        <v>240.5549466909089</v>
+        <v>75.78032220706913</v>
       </c>
       <c r="K44" t="n">
         <v>240.5549466909089</v>
@@ -30727,10 +30727,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="N44" t="n">
-        <v>49.20719891181393</v>
+        <v>143.6847907518734</v>
       </c>
       <c r="O44" t="n">
         <v>240.5549466909089</v>
@@ -30739,7 +30739,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5549466909089</v>
+        <v>88.43774142365245</v>
       </c>
       <c r="R44" t="n">
         <v>240.5549466909089</v>
@@ -30748,7 +30748,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5549466909089</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U44" t="n">
         <v>240.5549466909089</v>
@@ -30782,7 +30782,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30794,7 +30794,7 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J45" t="n">
         <v>51.87880489469025</v>
@@ -30824,25 +30824,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.2276542198663</v>
       </c>
       <c r="V45" t="n">
-        <v>219.9966513042592</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>187.8792197554122</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>240.5549466909089</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30870,7 +30870,7 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H46" t="n">
-        <v>171.3890536710362</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I46" t="n">
         <v>164.6938248359117</v>
@@ -30897,16 +30897,16 @@
         <v>57.83856215319999</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7738576957196</v>
+        <v>177.0854394705798</v>
       </c>
       <c r="R46" t="n">
-        <v>203.1920160450731</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="S46" t="n">
         <v>235.3458201896853</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7389474107024</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="U46" t="n">
         <v>240.5549466909089</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>94.32404974931623</v>
+        <v>24.52347714647725</v>
       </c>
       <c r="L11" t="n">
-        <v>98.93990648501779</v>
+        <v>49.05450173165866</v>
       </c>
       <c r="M11" t="n">
         <v>83.75022101202049</v>
       </c>
       <c r="N11" t="n">
-        <v>78.19383561383771</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="O11" t="n">
         <v>36.55404110068636</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L12" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M12" t="n">
-        <v>9.267167734103385</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N12" t="n">
-        <v>98.93990648501779</v>
+        <v>68.84099665492479</v>
       </c>
       <c r="O12" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>85.67516677172179</v>
@@ -35541,40 +35541,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.73893652031384</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>33.89867621330959</v>
+        <v>2.484859970339862</v>
       </c>
       <c r="D13" t="n">
-        <v>55.17320693457123</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.67971597305694</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>61.42897496683528</v>
+        <v>61.4289749668354</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>31.66037420357271</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>35.66203234937035</v>
       </c>
       <c r="J13" t="n">
-        <v>80.49039014520213</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>16.70615370686561</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>45.26954801765721</v>
       </c>
       <c r="L14" t="n">
         <v>49.05450173165866</v>
@@ -35662,13 +35662,13 @@
         <v>36.55404110068636</v>
       </c>
       <c r="P14" t="n">
-        <v>39.05416247351064</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.215385544146894</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>39.36607756419615</v>
       </c>
       <c r="L15" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M15" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N15" t="n">
-        <v>68.84099665492502</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>55.57625694162891</v>
       </c>
       <c r="P15" t="n">
-        <v>85.67516677172179</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>22.73893652031387</v>
       </c>
       <c r="C16" t="n">
-        <v>33.89867621330959</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.17320693457123</v>
+        <v>55.17320693457125</v>
       </c>
       <c r="E16" t="n">
-        <v>58.67971597305694</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.42897496683528</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N16" t="n">
-        <v>20.9955738873638</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>53.32409803523382</v>
       </c>
       <c r="P16" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>64.51217533132477</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.05450173165866</v>
+        <v>94.3240497493159</v>
       </c>
       <c r="M17" t="n">
         <v>83.75022101202049</v>
@@ -35905,7 +35905,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>79.69727917135057</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>9.267167734103381</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M18" t="n">
-        <v>98.93990648501779</v>
+        <v>94.94233450582506</v>
       </c>
       <c r="N18" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="O18" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="P18" t="n">
-        <v>85.67516677172179</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,16 +36115,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>89.29193017432425</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>45.95043107226993</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.05450173165866</v>
+        <v>94.3240497493159</v>
       </c>
       <c r="M20" t="n">
         <v>83.75022101202049</v>
@@ -36145,7 +36145,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.967093256081171</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>39.36607756419615</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>68.84099665492479</v>
       </c>
       <c r="M21" t="n">
-        <v>68.84099665492502</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N21" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="P21" t="n">
         <v>85.67516677172179</v>
@@ -36361,13 +36361,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.05450173165866</v>
+        <v>83.85351293572216</v>
       </c>
       <c r="M23" t="n">
         <v>83.75022101202049</v>
       </c>
       <c r="N23" t="n">
-        <v>78.19383561383771</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="O23" t="n">
         <v>36.55404110068636</v>
@@ -36385,13 +36385,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>55.54508207524367</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>79.69727917135046</v>
+        <v>79.69727917135057</v>
       </c>
       <c r="V23" t="n">
-        <v>8.967093256081171</v>
+        <v>8.967093256081284</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L24" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="M24" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>94.94233450582519</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="O24" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>55.57625694162903</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>249.4147554462998</v>
       </c>
       <c r="P26" t="n">
-        <v>199.465235025091</v>
+        <v>199.4652350250909</v>
       </c>
       <c r="Q26" t="n">
         <v>124.422972921961</v>
@@ -36738,16 +36738,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>73.93383212716682</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.16523136390413</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.16688950970178</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>181.4956660590429</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36768,10 +36768,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>70.64506219592712</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>55.41534913765695</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0803921385443</v>
+        <v>137.0803921385444</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6342064794345</v>
+        <v>207.6342064794346</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9152160772721</v>
+        <v>261.9152160772722</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6109353576339</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0545499594512</v>
+        <v>291.0545499594513</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4147554462998</v>
+        <v>249.4147554462999</v>
       </c>
       <c r="P29" t="n">
         <v>199.4652350250911</v>
@@ -36853,7 +36853,7 @@
         <v>124.422972921961</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72024270447843</v>
+        <v>18.72024270447852</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.67806409490277</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36999,13 +36999,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>14.2107989093836</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>81.88886300428572</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0221521924135</v>
+        <v>155.0221521924136</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>137.0803921385443</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6342064794346</v>
+        <v>207.6342064794345</v>
       </c>
       <c r="L32" t="n">
         <v>261.9152160772721</v>
       </c>
       <c r="M32" t="n">
-        <v>296.610935357634</v>
+        <v>296.6109353576339</v>
       </c>
       <c r="N32" t="n">
-        <v>291.054549959451</v>
+        <v>291.0545499594512</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4147554462999</v>
+        <v>249.4147554462998</v>
       </c>
       <c r="P32" t="n">
         <v>199.465235025091</v>
@@ -37090,7 +37090,7 @@
         <v>124.422972921961</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72024270447846</v>
+        <v>18.72024270447841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.4035333736411</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>181.4956660590429</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,16 +37239,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>9.011815764016132</v>
       </c>
       <c r="P34" t="n">
-        <v>141.1554602462654</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.08685664989385</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.668698300540393</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>164.7746244838397</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>235.32843882473</v>
+        <v>208.7553155294756</v>
       </c>
       <c r="L35" t="n">
-        <v>98.26170064347343</v>
+        <v>289.6094484225675</v>
       </c>
       <c r="M35" t="n">
         <v>324.3051677029294</v>
@@ -37443,10 +37443,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5.611706222218544</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>98.87880547868392</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>104.4905117009025</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37546,19 +37546,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>289.6094484225675</v>
+        <v>111.1759015571668</v>
       </c>
       <c r="M38" t="n">
         <v>324.3051677029294</v>
       </c>
       <c r="N38" t="n">
-        <v>78.19383561383771</v>
+        <v>318.7487823047466</v>
       </c>
       <c r="O38" t="n">
-        <v>277.1089877915953</v>
+        <v>36.55404110068636</v>
       </c>
       <c r="P38" t="n">
-        <v>30.5852117251134</v>
+        <v>227.1594673703864</v>
       </c>
       <c r="Q38" t="n">
         <v>152.1172052672564</v>
@@ -37570,7 +37570,7 @@
         <v>13.30678731250283</v>
       </c>
       <c r="T38" t="n">
-        <v>18.14070877987229</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>74.09776571893656</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>104.4905117009024</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>30.39274598196588</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>164.7746244838397</v>
       </c>
       <c r="K41" t="n">
-        <v>235.32843882473</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>98.26170064347343</v>
+        <v>49.05450173165866</v>
       </c>
       <c r="M41" t="n">
-        <v>324.3051677029294</v>
+        <v>127.7309120576564</v>
       </c>
       <c r="N41" t="n">
-        <v>78.19383561383771</v>
+        <v>318.7487823047466</v>
       </c>
       <c r="O41" t="n">
-        <v>36.55404110068636</v>
+        <v>277.1089877915953</v>
       </c>
       <c r="P41" t="n">
         <v>227.1594673703864</v>
@@ -37917,13 +37917,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>48.49208977240028</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>67.12758105506666</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>18.63549128266638</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7746244838398</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>235.32843882473</v>
@@ -38023,10 +38023,10 @@
         <v>49.05450173165875</v>
       </c>
       <c r="M44" t="n">
-        <v>83.75022101202059</v>
+        <v>324.3051677029295</v>
       </c>
       <c r="N44" t="n">
-        <v>127.4010345256517</v>
+        <v>221.8786263657112</v>
       </c>
       <c r="O44" t="n">
         <v>277.1089877915954</v>
@@ -38035,7 +38035,7 @@
         <v>227.1594673703865</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.1172052672565</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>46.4144750497739</v>
@@ -38044,7 +38044,7 @@
         <v>13.30678731250284</v>
       </c>
       <c r="T44" t="n">
-        <v>18.14070877987229</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>98.87880547868392</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.611706222218544</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>50.31158177486011</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.36293064583581</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.81599928020654</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
